--- a/Result/result_count.xlsx
+++ b/Result/result_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TornadoProgram\TornadoTest\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042EB0E5-BE4E-4623-AB81-C90A51FBF855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A902ECF2-9D1C-4E94-ACDC-61D93BBF56CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="216">
   <si>
     <t>100ETH</t>
   </si>
@@ -795,6 +795,23 @@
   </si>
   <si>
     <t>O-500-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FP-Growth</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1467,12 +1484,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1767,31 +1786,30 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.1328125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.796875" style="2" customWidth="1"/>
     <col min="7" max="7" width="2.86328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.9296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.265625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="2" customWidth="1"/>
     <col min="12" max="12" width="2.86328125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.86328125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.3984375" style="2" customWidth="1"/>
     <col min="17" max="17" width="2.86328125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.06640625" style="13" customWidth="1"/>
-    <col min="19" max="19" width="6" style="13" customWidth="1"/>
-    <col min="20" max="20" width="5.9296875" style="13" customWidth="1"/>
+    <col min="18" max="19" width="8.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.19921875" style="13" bestFit="1" customWidth="1"/>
     <col min="21" max="24" width="7.33203125" style="46" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.1328125" style="13" customWidth="1"/>
     <col min="26" max="26" width="8.3984375" style="13" customWidth="1"/>
@@ -1811,21 +1829,23 @@
       <c r="I1" s="124"/>
       <c r="J1" s="124"/>
       <c r="K1" s="124"/>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="126" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="R1" s="128" t="s">
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="R1" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="128" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
       <c r="Y1" s="125"/>
       <c r="Z1" s="125"/>
     </row>
@@ -3414,11 +3434,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Result/result_count.xlsx
+++ b/Result/result_count.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TornadoProgram\TornadoTest\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TYJ\TornadoCluster\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A902ECF2-9D1C-4E94-ACDC-61D93BBF56CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D4BC4E-A4C3-49A1-B120-83F3B369B51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3900" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="216">
   <si>
     <t>100ETH</t>
   </si>
@@ -819,7 +819,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,6 +916,20 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -991,7 +1005,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1124,12 +1138,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1160,23 +1226,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1248,10 +1301,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1261,60 +1310,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1336,18 +1334,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1375,27 +1361,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,80 +1382,204 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1780,1659 +1869,1655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4:X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="2.86328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.265625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.86328125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.86328125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.3984375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="2.86328125" style="2" customWidth="1"/>
-    <col min="18" max="19" width="8.1328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="7.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.1328125" style="13" customWidth="1"/>
-    <col min="26" max="26" width="8.3984375" style="13" customWidth="1"/>
-    <col min="27" max="16384" width="9.1328125" style="2"/>
+    <col min="5" max="5" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="2.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="2.875" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="123" customFormat="1" ht="20.65" x14ac:dyDescent="0.5">
-      <c r="C1" s="124" t="s">
+    <row r="1" spans="1:26" s="68" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="H1" s="124" t="s">
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="135" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="M1" s="126" t="s">
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="R1" s="127" t="s">
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="136" t="s">
         <v>210</v>
       </c>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="128" t="s">
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="137" t="s">
         <v>215</v>
       </c>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-    </row>
-    <row r="2" spans="1:26" s="52" customFormat="1" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+    </row>
+    <row r="2" spans="1:26" s="44" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="61" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="62" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="63" t="s">
+      <c r="I2" s="94"/>
+      <c r="J2" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="64" t="s">
+      <c r="K2" s="98"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="65" t="s">
+      <c r="N2" s="94"/>
+      <c r="O2" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="55" t="s">
+      <c r="P2" s="100"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="102" t="s">
         <v>213</v>
       </c>
-      <c r="T2" s="57" t="s">
+      <c r="T2" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="U2" s="67" t="s">
+      <c r="U2" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="V2" s="68" t="s">
+      <c r="V2" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="W2" s="47" t="s">
+      <c r="W2" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="X2" s="47" t="s">
+      <c r="X2" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="94" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="17" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:26" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="70">
+      <c r="B3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="62">
         <v>4272</v>
       </c>
-      <c r="D3" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="71">
+      <c r="D3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="63">
         <v>9446</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="63">
         <f>E3/C3</f>
         <v>2.2111423220973783</v>
       </c>
-      <c r="G3" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="72">
+      <c r="G3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="64">
         <v>312</v>
       </c>
-      <c r="I3" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="73">
+      <c r="I3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="65">
         <v>848</v>
       </c>
-      <c r="K3" s="73">
+      <c r="K3" s="65">
         <f>J3/H3</f>
         <v>2.7179487179487181</v>
       </c>
-      <c r="L3" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="74">
+      <c r="L3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="66">
         <v>343</v>
       </c>
-      <c r="N3" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="75">
+      <c r="N3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="67">
         <v>700</v>
       </c>
-      <c r="P3" s="76">
+      <c r="P3" s="67">
         <f>O3/M3</f>
         <v>2.0408163265306123</v>
       </c>
-      <c r="Q3" s="77" t="s">
+      <c r="Q3" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="R3" s="55"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="67">
-        <v>170</v>
-      </c>
-      <c r="V3" s="68">
-        <v>783</v>
-      </c>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="16">
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="84">
+        <v>251</v>
+      </c>
+      <c r="V3" s="85">
+        <v>646</v>
+      </c>
+      <c r="W3" s="61">
+        <v>1</v>
+      </c>
+      <c r="X3" s="61">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="61">
         <v>84</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="61">
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="9">
         <v>5737</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="45" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="10">
         <v>16878</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="47">
         <f t="shared" ref="F4:F21" si="0">E4/C4</f>
         <v>2.9419557259891929</v>
       </c>
-      <c r="G4" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="72">
+      <c r="G4" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="48">
         <v>829</v>
       </c>
-      <c r="I4" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="73">
+      <c r="I4" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="49">
         <v>2740</v>
       </c>
-      <c r="K4" s="73">
-        <f t="shared" ref="K4:K21" si="1">J4/H4</f>
+      <c r="K4" s="49">
+        <f t="shared" ref="K4:K17" si="1">J4/H4</f>
         <v>3.3051869722557297</v>
       </c>
-      <c r="L4" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="74">
+      <c r="L4" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="50">
         <v>1037</v>
       </c>
-      <c r="N4" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="75">
+      <c r="N4" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="51">
         <v>2270</v>
       </c>
-      <c r="P4" s="78">
-        <f t="shared" ref="P4:P21" si="2">O4/M4</f>
+      <c r="P4" s="51">
+        <f t="shared" ref="P4:P17" si="2">O4/M4</f>
         <v>2.1890067502410799</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="R4" s="55"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="67">
+      <c r="R4" s="74"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="77">
         <v>0</v>
       </c>
-      <c r="V4" s="68">
+      <c r="V4" s="78">
         <v>0</v>
       </c>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="13">
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45">
         <v>134</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="Z4" s="45">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="9">
         <v>4674</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="45" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="10">
         <v>14520</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="47">
         <f t="shared" si="0"/>
         <v>3.1065468549422337</v>
       </c>
-      <c r="G5" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="72">
+      <c r="G5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="48">
         <v>778</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="45" t="s">
         <v>75</v>
       </c>
       <c r="J5" s="11">
         <v>2588</v>
       </c>
-      <c r="K5" s="73">
+      <c r="K5" s="49">
         <f t="shared" si="1"/>
         <v>3.3264781491002569</v>
       </c>
-      <c r="L5" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="74">
+      <c r="L5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="50">
         <v>850</v>
       </c>
-      <c r="N5" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="75">
+      <c r="N5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="51">
         <v>1839</v>
       </c>
-      <c r="P5" s="78">
+      <c r="P5" s="51">
         <f t="shared" si="2"/>
         <v>2.1635294117647059</v>
       </c>
-      <c r="Q5" s="79" t="s">
+      <c r="Q5" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="67">
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="77">
         <v>0</v>
       </c>
-      <c r="V5" s="68">
+      <c r="V5" s="78">
         <v>0</v>
       </c>
-      <c r="W5" s="47">
-        <v>1</v>
-      </c>
-      <c r="X5" s="47">
-        <v>157</v>
-      </c>
-      <c r="Y5" s="13">
+      <c r="W5" s="45">
+        <v>26</v>
+      </c>
+      <c r="X5" s="45">
+        <v>87</v>
+      </c>
+      <c r="Y5" s="45">
         <v>144</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="Z5" s="45">
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="19" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="80" t="s">
+    <row r="6" spans="1:26" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="81">
+      <c r="B6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="53">
         <v>1312</v>
       </c>
-      <c r="D6" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="82">
+      <c r="D6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="54">
         <v>4836</v>
       </c>
-      <c r="F6" s="83">
+      <c r="F6" s="55">
         <f t="shared" si="0"/>
         <v>3.6859756097560976</v>
       </c>
-      <c r="G6" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="84">
+      <c r="G6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="56">
         <v>259</v>
       </c>
-      <c r="I6" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="85">
+      <c r="I6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="57">
         <v>1442</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="58">
         <f t="shared" si="1"/>
         <v>5.5675675675675675</v>
       </c>
-      <c r="L6" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="87">
+      <c r="L6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="59">
         <v>264</v>
       </c>
-      <c r="N6" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="88">
+      <c r="N6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="60">
         <v>625</v>
       </c>
-      <c r="P6" s="89">
+      <c r="P6" s="87">
         <f t="shared" si="2"/>
         <v>2.3674242424242422</v>
       </c>
-      <c r="Q6" s="90" t="s">
+      <c r="Q6" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="91"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="94">
+      <c r="R6" s="89"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="92">
         <v>0</v>
       </c>
-      <c r="V6" s="95">
+      <c r="V6" s="93">
         <v>0</v>
       </c>
-      <c r="W6" s="18">
-        <v>9</v>
-      </c>
-      <c r="X6" s="18">
-        <v>171</v>
-      </c>
-      <c r="Y6" s="18">
+      <c r="W6" s="52">
+        <v>47</v>
+      </c>
+      <c r="X6" s="52">
+        <v>116</v>
+      </c>
+      <c r="Y6" s="52">
         <v>135</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="Z6" s="52">
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="96" t="s">
+    <row r="7" spans="1:26" s="120" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="97">
+      <c r="B7" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="108">
         <v>34</v>
       </c>
-      <c r="D7" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="98">
+      <c r="D7" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="109">
         <v>63</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="109">
         <f t="shared" si="0"/>
         <v>1.8529411764705883</v>
       </c>
-      <c r="G7" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="99">
+      <c r="G7" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="110">
         <v>4</v>
       </c>
-      <c r="I7" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="100">
+      <c r="I7" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="111">
         <v>7</v>
       </c>
-      <c r="K7" s="100">
+      <c r="K7" s="111">
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="L7" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="101">
+      <c r="L7" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="112">
         <v>1</v>
       </c>
-      <c r="N7" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="102">
+      <c r="N7" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="113">
         <v>2</v>
       </c>
-      <c r="P7" s="78">
+      <c r="P7" s="113">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q7" s="79" t="s">
+      <c r="Q7" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="R7" s="55">
+      <c r="R7" s="115">
         <v>16</v>
       </c>
-      <c r="S7" s="53">
+      <c r="S7" s="116">
         <v>35</v>
       </c>
-      <c r="T7" s="57">
+      <c r="T7" s="117">
         <v>3</v>
       </c>
-      <c r="U7" s="67">
-        <v>12</v>
-      </c>
-      <c r="V7" s="68">
-        <v>42</v>
-      </c>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="13">
+      <c r="U7" s="77">
+        <v>17</v>
+      </c>
+      <c r="V7" s="78">
+        <v>37</v>
+      </c>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="107">
         <v>4</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="107">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="104">
+      <c r="B8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="46">
         <v>71</v>
       </c>
-      <c r="D8" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="105">
+      <c r="D8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="47">
         <v>143</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="47">
         <f t="shared" si="0"/>
         <v>2.0140845070422535</v>
       </c>
-      <c r="G8" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="106">
+      <c r="G8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="48">
         <v>8</v>
       </c>
-      <c r="I8" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="107">
+      <c r="I8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="49">
         <v>16</v>
       </c>
-      <c r="K8" s="107">
+      <c r="K8" s="49">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L8" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="108">
+      <c r="L8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="50">
         <v>13</v>
       </c>
-      <c r="N8" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="109">
+      <c r="N8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="51">
         <v>27</v>
       </c>
-      <c r="P8" s="78">
+      <c r="P8" s="51">
         <f t="shared" si="2"/>
         <v>2.0769230769230771</v>
       </c>
-      <c r="Q8" s="79" t="s">
+      <c r="Q8" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R8" s="74">
         <v>131</v>
       </c>
-      <c r="S8" s="53">
+      <c r="S8" s="75">
         <v>287</v>
       </c>
-      <c r="T8" s="57">
+      <c r="T8" s="76">
         <v>4</v>
       </c>
-      <c r="U8" s="67">
-        <v>102</v>
-      </c>
-      <c r="V8" s="68">
-        <v>338</v>
-      </c>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="13">
+      <c r="U8" s="77">
+        <v>129</v>
+      </c>
+      <c r="V8" s="78">
+        <v>283</v>
+      </c>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45">
         <v>4</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z8" s="45">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="46" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="47" t="s">
+    <row r="9" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="110">
+      <c r="B9" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="46">
         <v>191</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="111">
+      <c r="D9" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="47">
         <v>414</v>
       </c>
-      <c r="F9" s="111">
+      <c r="F9" s="47">
         <f t="shared" si="0"/>
         <v>2.167539267015707</v>
       </c>
-      <c r="G9" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="112">
+      <c r="G9" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="48">
         <v>28</v>
       </c>
-      <c r="I9" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="113">
+      <c r="I9" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="49">
         <v>60</v>
       </c>
-      <c r="K9" s="113">
+      <c r="K9" s="49">
         <f t="shared" si="1"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="L9" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="114">
+      <c r="L9" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="50">
         <v>38</v>
       </c>
-      <c r="N9" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="115">
+      <c r="N9" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="51">
         <v>76</v>
       </c>
-      <c r="P9" s="115">
+      <c r="P9" s="51">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q9" s="79" t="s">
+      <c r="Q9" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="R9" s="116">
+      <c r="R9" s="74">
         <v>474</v>
       </c>
-      <c r="S9" s="117">
+      <c r="S9" s="75">
         <v>1299</v>
       </c>
-      <c r="T9" s="118">
+      <c r="T9" s="76">
         <v>13</v>
       </c>
-      <c r="U9" s="67">
-        <v>138</v>
-      </c>
-      <c r="V9" s="68">
-        <v>1515</v>
-      </c>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47">
+      <c r="U9" s="77">
+        <v>474</v>
+      </c>
+      <c r="V9" s="78">
+        <v>1303</v>
+      </c>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45">
         <v>13</v>
       </c>
-      <c r="Z9" s="47">
+      <c r="Z9" s="45">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="96" t="s">
+    <row r="10" spans="1:26" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="97">
+      <c r="B10" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="53">
         <v>113</v>
       </c>
-      <c r="D10" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="98">
+      <c r="D10" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="54">
         <v>254</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="54">
         <f t="shared" si="0"/>
         <v>2.247787610619469</v>
       </c>
-      <c r="G10" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="99">
+      <c r="G10" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="56">
         <v>19</v>
       </c>
-      <c r="I10" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="100">
+      <c r="I10" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="57">
         <v>46</v>
       </c>
-      <c r="K10" s="100">
+      <c r="K10" s="57">
         <f t="shared" si="1"/>
         <v>2.4210526315789473</v>
       </c>
-      <c r="L10" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="101">
+      <c r="L10" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="59">
         <v>16</v>
       </c>
-      <c r="N10" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="102">
+      <c r="N10" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="60">
         <v>33</v>
       </c>
-      <c r="P10" s="119">
+      <c r="P10" s="60">
         <f t="shared" si="2"/>
         <v>2.0625</v>
       </c>
-      <c r="Q10" s="120" t="s">
+      <c r="Q10" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="R10" s="56">
+      <c r="R10" s="89">
         <v>403</v>
       </c>
-      <c r="S10" s="54">
+      <c r="S10" s="90">
         <v>1105</v>
       </c>
-      <c r="T10" s="58">
+      <c r="T10" s="91">
         <v>16</v>
       </c>
-      <c r="U10" s="121">
-        <v>116</v>
-      </c>
-      <c r="V10" s="122">
-        <v>1280</v>
-      </c>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14">
+      <c r="U10" s="92">
+        <v>402</v>
+      </c>
+      <c r="V10" s="93">
+        <v>1101</v>
+      </c>
+      <c r="W10" s="133"/>
+      <c r="Y10" s="52">
         <v>16</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="Z10" s="52">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:26" s="120" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="49">
+      <c r="B11" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="123">
         <v>82</v>
       </c>
-      <c r="D11" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="50">
+      <c r="D11" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="124">
         <v>151</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="109">
         <f t="shared" si="0"/>
         <v>1.8414634146341464</v>
       </c>
-      <c r="G11" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="99">
+      <c r="G11" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="110">
         <v>7</v>
       </c>
-      <c r="I11" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="51">
+      <c r="I11" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="125">
         <v>12</v>
       </c>
-      <c r="K11" s="100">
+      <c r="K11" s="111">
         <f t="shared" si="1"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="L11" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="101">
+      <c r="L11" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="112">
         <v>6</v>
       </c>
-      <c r="N11" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="102">
+      <c r="N11" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="113">
         <v>11</v>
       </c>
-      <c r="P11" s="78">
+      <c r="P11" s="113">
         <f t="shared" si="2"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="Q11" s="79" t="s">
+      <c r="Q11" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="R11" s="55">
+      <c r="R11" s="115">
         <v>45</v>
       </c>
-      <c r="S11" s="53">
+      <c r="S11" s="116">
         <v>91</v>
       </c>
-      <c r="T11" s="57">
+      <c r="T11" s="117">
         <v>3</v>
       </c>
-      <c r="U11" s="67">
-        <v>43</v>
-      </c>
-      <c r="V11" s="68">
-        <v>98</v>
-      </c>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="13">
+      <c r="U11" s="118">
+        <v>44</v>
+      </c>
+      <c r="V11" s="119">
+        <v>89</v>
+      </c>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="107">
         <v>8</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="Z11" s="107">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:26" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="127">
         <v>107</v>
       </c>
-      <c r="D12" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="128">
         <v>216</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="54">
         <f t="shared" si="0"/>
         <v>2.0186915887850465</v>
       </c>
-      <c r="G12" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="72">
+      <c r="G12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="56">
         <v>12</v>
       </c>
-      <c r="I12" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="73">
+      <c r="I12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="57">
         <v>28</v>
       </c>
-      <c r="K12" s="73">
+      <c r="K12" s="57">
         <f t="shared" si="1"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="L12" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="74">
+      <c r="L12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="59">
         <v>17</v>
       </c>
-      <c r="N12" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="75">
+      <c r="N12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="60">
         <v>36</v>
       </c>
-      <c r="P12" s="78">
+      <c r="P12" s="60">
         <f t="shared" si="2"/>
         <v>2.1176470588235294</v>
       </c>
-      <c r="Q12" s="79" t="s">
+      <c r="Q12" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="R12" s="55">
+      <c r="R12" s="89">
         <v>97</v>
       </c>
-      <c r="S12" s="53">
+      <c r="S12" s="90">
         <v>201</v>
       </c>
-      <c r="T12" s="57">
+      <c r="T12" s="91">
         <v>4</v>
       </c>
-      <c r="U12" s="67">
-        <v>82</v>
-      </c>
-      <c r="V12" s="68">
-        <v>234</v>
-      </c>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="13">
+      <c r="U12" s="92">
+        <v>96</v>
+      </c>
+      <c r="V12" s="93">
+        <v>199</v>
+      </c>
+      <c r="W12" s="134"/>
+      <c r="Y12" s="52">
         <v>2</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z12" s="52">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:26" s="120" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="123">
         <v>41</v>
       </c>
-      <c r="D13" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="124">
         <v>76</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="109">
         <f t="shared" si="0"/>
         <v>1.8536585365853659</v>
       </c>
-      <c r="G13" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="72">
+      <c r="G13" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="110">
         <v>0</v>
       </c>
-      <c r="I13" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="11">
+      <c r="I13" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="125">
         <v>0</v>
       </c>
-      <c r="K13" s="73" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="74">
+      <c r="K13" s="130" t="s">
+        <v>195</v>
+      </c>
+      <c r="L13" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="112">
         <v>1</v>
       </c>
-      <c r="N13" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="75">
+      <c r="N13" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="113">
         <v>2</v>
       </c>
-      <c r="P13" s="78">
+      <c r="P13" s="113">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q13" s="79" t="s">
+      <c r="Q13" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="115">
         <v>8</v>
       </c>
-      <c r="S13" s="53">
+      <c r="S13" s="116">
         <v>16</v>
       </c>
-      <c r="T13" s="57">
+      <c r="T13" s="117">
         <v>2</v>
       </c>
-      <c r="U13" s="67">
-        <v>8</v>
-      </c>
-      <c r="V13" s="68">
+      <c r="U13" s="84">
+        <v>9</v>
+      </c>
+      <c r="V13" s="85">
         <v>18</v>
       </c>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="13">
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="107">
         <v>3</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="Z13" s="107">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:26" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="127">
         <v>107</v>
       </c>
-      <c r="D14" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="128">
         <v>209</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="54">
         <f t="shared" si="0"/>
         <v>1.9532710280373833</v>
       </c>
-      <c r="G14" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="72">
+      <c r="G14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="56">
         <v>10</v>
       </c>
-      <c r="I14" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="73">
+      <c r="I14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="57">
         <v>19</v>
       </c>
-      <c r="K14" s="73">
+      <c r="K14" s="57">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="L14" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="74">
+      <c r="L14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="59">
         <v>12</v>
       </c>
-      <c r="N14" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="75">
+      <c r="N14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="60">
         <v>23</v>
       </c>
-      <c r="P14" s="78">
+      <c r="P14" s="60">
         <f t="shared" si="2"/>
         <v>1.9166666666666667</v>
       </c>
-      <c r="Q14" s="79" t="s">
+      <c r="Q14" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="89">
         <v>93</v>
       </c>
-      <c r="S14" s="53">
+      <c r="S14" s="90">
         <v>197</v>
       </c>
-      <c r="T14" s="57">
+      <c r="T14" s="91">
         <v>3</v>
       </c>
-      <c r="U14" s="67">
-        <v>79</v>
-      </c>
-      <c r="V14" s="68">
-        <v>230</v>
-      </c>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="13">
+      <c r="U14" s="92">
+        <v>94</v>
+      </c>
+      <c r="V14" s="93">
+        <v>199</v>
+      </c>
+      <c r="W14" s="134"/>
+      <c r="Y14" s="52">
         <v>4</v>
       </c>
-      <c r="Z14" s="13">
+      <c r="Z14" s="52">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:26" s="120" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="123">
         <v>7</v>
       </c>
-      <c r="D15" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D15" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="124">
         <v>15</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="109">
         <f t="shared" si="0"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="G15" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="72">
+      <c r="G15" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="110">
         <v>0</v>
       </c>
-      <c r="I15" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="73">
+      <c r="I15" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="111">
         <v>0</v>
       </c>
-      <c r="K15" s="73" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="74">
+      <c r="K15" s="130" t="s">
+        <v>195</v>
+      </c>
+      <c r="L15" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="112">
         <v>0</v>
       </c>
-      <c r="N15" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="75">
+      <c r="N15" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="113">
         <v>0</v>
       </c>
-      <c r="P15" s="78" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" s="79" t="s">
+      <c r="P15" s="131" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q15" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="R15" s="55">
+      <c r="R15" s="115">
         <v>24</v>
       </c>
-      <c r="S15" s="53">
+      <c r="S15" s="116">
         <v>50</v>
       </c>
-      <c r="T15" s="57">
+      <c r="T15" s="117">
         <v>3</v>
       </c>
-      <c r="U15" s="67">
-        <v>13</v>
-      </c>
-      <c r="V15" s="68">
-        <v>64</v>
-      </c>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="13">
+      <c r="U15" s="118">
+        <v>26</v>
+      </c>
+      <c r="V15" s="119">
+        <v>54</v>
+      </c>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="107">
         <v>3</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="Z15" s="107">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="9">
         <v>21</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="45" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="10">
         <v>42</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="47">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G16" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="72">
+      <c r="G16" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="48">
         <v>7</v>
       </c>
-      <c r="I16" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" s="73">
+      <c r="I16" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="49">
         <v>14</v>
       </c>
-      <c r="K16" s="73">
+      <c r="K16" s="49">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L16" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="74">
+      <c r="L16" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="50">
         <v>4</v>
       </c>
-      <c r="N16" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" s="75">
+      <c r="N16" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="51">
         <v>7</v>
       </c>
-      <c r="P16" s="78">
+      <c r="P16" s="51">
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
-      <c r="Q16" s="79" t="s">
+      <c r="Q16" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="R16" s="55">
+      <c r="R16" s="74">
         <v>60</v>
       </c>
-      <c r="S16" s="53">
+      <c r="S16" s="75">
         <v>156</v>
       </c>
-      <c r="T16" s="57">
+      <c r="T16" s="76">
         <v>6</v>
       </c>
-      <c r="U16" s="67">
-        <v>21</v>
-      </c>
-      <c r="V16" s="68">
-        <v>185</v>
-      </c>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="13">
+      <c r="U16" s="77">
+        <v>60</v>
+      </c>
+      <c r="V16" s="78">
+        <v>156</v>
+      </c>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45">
         <v>6</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="Z16" s="45">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:26" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="127">
         <v>20</v>
       </c>
-      <c r="D17" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="128">
         <v>36</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="54">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="G17" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="72">
+      <c r="G17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="56">
         <v>8</v>
       </c>
-      <c r="I17" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="11">
+      <c r="I17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="132">
         <v>19</v>
       </c>
-      <c r="K17" s="73">
+      <c r="K17" s="57">
         <f t="shared" si="1"/>
         <v>2.375</v>
       </c>
-      <c r="L17" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="74">
+      <c r="L17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="59">
         <v>1</v>
       </c>
-      <c r="N17" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="O17" s="75">
+      <c r="N17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="60">
         <v>1</v>
       </c>
-      <c r="P17" s="78">
+      <c r="P17" s="60">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="79" t="s">
+      <c r="Q17" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="R17" s="55">
-        <v>52</v>
-      </c>
-      <c r="S17" s="53">
+      <c r="R17" s="89">
+        <v>52</v>
+      </c>
+      <c r="S17" s="90">
         <v>116</v>
       </c>
-      <c r="T17" s="57">
+      <c r="T17" s="91">
         <v>4</v>
       </c>
-      <c r="U17" s="67">
-        <v>31</v>
-      </c>
-      <c r="V17" s="68">
-        <v>130</v>
-      </c>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="13">
+      <c r="U17" s="92">
+        <v>51</v>
+      </c>
+      <c r="V17" s="93">
+        <v>114</v>
+      </c>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="52">
         <v>2</v>
       </c>
-      <c r="Z17" s="13">
+      <c r="Z17" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="42">
         <v>2</v>
       </c>
-      <c r="D18" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="43">
         <v>3</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="63">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G18" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="72">
+      <c r="G18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="64">
         <v>0</v>
       </c>
-      <c r="I18" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="73">
+      <c r="I18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="65">
         <v>0</v>
       </c>
-      <c r="K18" s="73" t="e">
-        <f>J18/H18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="74">
+      <c r="K18" s="121" t="s">
+        <v>195</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="66">
         <v>0</v>
       </c>
-      <c r="N18" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="75">
+      <c r="N18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="67">
         <v>0</v>
       </c>
-      <c r="P18" s="78" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="79" t="s">
+      <c r="P18" s="129" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q18" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="R18" s="55">
+      <c r="R18" s="81">
         <v>0</v>
       </c>
-      <c r="S18" s="53">
+      <c r="S18" s="82">
         <v>0</v>
       </c>
-      <c r="T18" s="57">
+      <c r="T18" s="83">
         <v>-1</v>
       </c>
-      <c r="U18" s="67">
+      <c r="U18" s="84">
         <v>0</v>
       </c>
-      <c r="V18" s="68">
+      <c r="V18" s="85">
         <v>0</v>
       </c>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="13">
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="61">
         <v>2</v>
       </c>
-      <c r="Z18" s="13">
+      <c r="Z18" s="61">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="45" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G19" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="72">
+      <c r="G19" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="48">
         <v>0</v>
       </c>
-      <c r="I19" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="73">
+      <c r="I19" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="49">
         <v>0</v>
       </c>
-      <c r="K19" s="73" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" s="74">
+      <c r="K19" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="50">
         <v>0</v>
       </c>
-      <c r="N19" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="75">
+      <c r="N19" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="51">
         <v>0</v>
       </c>
-      <c r="P19" s="78" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" s="79" t="s">
+      <c r="P19" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q19" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="R19" s="55">
+      <c r="R19" s="74">
         <v>0</v>
       </c>
-      <c r="S19" s="53">
+      <c r="S19" s="75">
         <v>0</v>
       </c>
-      <c r="T19" s="57">
+      <c r="T19" s="76">
         <v>-1</v>
       </c>
-      <c r="U19" s="67">
+      <c r="U19" s="77">
         <v>0</v>
       </c>
-      <c r="V19" s="68">
+      <c r="V19" s="78">
         <v>0</v>
       </c>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="13">
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45">
         <v>2</v>
       </c>
-      <c r="Z19" s="13">
+      <c r="Z19" s="45">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="9">
         <v>0</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="45" t="s">
         <v>75</v>
       </c>
       <c r="E20" s="10">
         <v>0</v>
       </c>
-      <c r="F20" s="71" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="72">
+      <c r="F20" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="48">
         <v>0</v>
       </c>
-      <c r="I20" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="73">
+      <c r="I20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="49">
         <v>0</v>
       </c>
-      <c r="K20" s="73" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="74">
+      <c r="K20" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="50">
         <v>0</v>
       </c>
-      <c r="N20" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="O20" s="75">
+      <c r="N20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="51">
         <v>0</v>
       </c>
-      <c r="P20" s="78" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="79" t="s">
+      <c r="P20" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q20" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="R20" s="55">
+      <c r="R20" s="74">
         <v>0</v>
       </c>
-      <c r="S20" s="53">
+      <c r="S20" s="75">
         <v>0</v>
       </c>
-      <c r="T20" s="57">
+      <c r="T20" s="76">
         <v>-1</v>
       </c>
-      <c r="U20" s="67">
+      <c r="U20" s="77">
         <v>0</v>
       </c>
-      <c r="V20" s="68">
+      <c r="V20" s="78">
         <v>0</v>
       </c>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="13">
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45">
         <v>0</v>
       </c>
-      <c r="Z20" s="13">
+      <c r="Z20" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="45" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="10">
         <v>2</v>
       </c>
-      <c r="F21" s="71">
+      <c r="F21" s="47">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G21" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="72">
+      <c r="G21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="48">
         <v>0</v>
       </c>
-      <c r="I21" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="73">
+      <c r="I21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="49">
         <v>0</v>
       </c>
-      <c r="K21" s="73" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="74">
+      <c r="K21" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="50">
         <v>0</v>
       </c>
-      <c r="N21" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="O21" s="75">
+      <c r="N21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="51">
         <v>0</v>
       </c>
-      <c r="P21" s="78" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" s="79" t="s">
+      <c r="P21" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q21" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="R21" s="55">
+      <c r="R21" s="74">
         <v>0</v>
       </c>
-      <c r="S21" s="53">
+      <c r="S21" s="75">
         <v>0</v>
       </c>
-      <c r="T21" s="57">
+      <c r="T21" s="76">
         <v>-1</v>
       </c>
-      <c r="U21" s="67">
+      <c r="U21" s="77">
         <v>0</v>
       </c>
-      <c r="V21" s="68">
+      <c r="V21" s="78">
         <v>0</v>
       </c>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="13">
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45">
         <v>0</v>
       </c>
-      <c r="Z21" s="13">
+      <c r="Z21" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="13"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6">
+    <row r="22" spans="1:26" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="86"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106">
         <v>11471</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
+      <c r="D22" s="106"/>
+      <c r="E22" s="106">
         <v>40432</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="13">
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="86">
         <v>1943</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13">
+      <c r="I22" s="86"/>
+      <c r="J22" s="86">
         <v>7358</v>
       </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13">
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86">
         <v>2312</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13">
+      <c r="N22" s="86"/>
+      <c r="O22" s="86">
         <v>5262</v>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="13">
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86">
         <v>476</v>
       </c>
-      <c r="Z22" s="13">
+      <c r="Z22" s="86">
         <v>1489</v>
       </c>
     </row>
+    <row r="23" spans="1:26" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:F1"/>
@@ -3459,15 +3544,15 @@
       <selection activeCell="C10" sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" customWidth="1"/>
-    <col min="4" max="4" width="14.46484375" customWidth="1"/>
-    <col min="5" max="5" width="16.73046875" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B1" s="6"/>
       <c r="C1" s="4" t="s">
         <v>71</v>
@@ -3477,7 +3562,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -3494,7 +3579,7 @@
         <v>200036</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>78</v>
       </c>
@@ -3508,7 +3593,7 @@
         <v>200974</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>79</v>
       </c>
@@ -3522,7 +3607,7 @@
         <v>80493</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>80</v>
       </c>
@@ -3534,7 +3619,7 @@
         <v>481503</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>81</v>
       </c>
@@ -3542,7 +3627,7 @@
         <v>200099</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>82</v>
       </c>
@@ -3550,7 +3635,7 @@
         <v>200004</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>83</v>
       </c>
@@ -3558,7 +3643,7 @@
         <v>211582</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>84</v>
       </c>
@@ -3566,7 +3651,7 @@
         <v>200060</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>85</v>
       </c>
@@ -3574,7 +3659,7 @@
         <v>200570</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>86</v>
       </c>
@@ -3582,7 +3667,7 @@
         <v>207795</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>87</v>
       </c>
@@ -3590,7 +3675,7 @@
         <v>200071</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>88</v>
       </c>
@@ -3598,7 +3683,7 @@
         <v>404005</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>89</v>
       </c>
@@ -3606,7 +3691,7 @@
         <v>200036</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>90</v>
       </c>
@@ -3614,7 +3699,7 @@
         <v>222192</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>91</v>
       </c>
@@ -3622,7 +3707,7 @@
         <v>170904</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17">
         <f>SUM(C2:C16)</f>
         <v>3224507</v>
@@ -3642,17 +3727,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="2"/>
+    <col min="5" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>41</v>
@@ -3667,7 +3752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
@@ -3684,7 +3769,7 @@
         <v>24396</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -3701,7 +3786,7 @@
         <v>39882</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -3718,7 +3803,7 @@
         <v>36775</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -3735,7 +3820,7 @@
         <v>16936</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -3752,7 +3837,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
@@ -3769,7 +3854,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
@@ -3786,7 +3871,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
@@ -3803,7 +3888,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -3820,7 +3905,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -3837,7 +3922,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -3854,7 +3939,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -3871,7 +3956,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -3888,7 +3973,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -3905,7 +3990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -3922,7 +4007,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -3939,7 +4024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
@@ -3956,7 +4041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
@@ -3973,7 +4058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
@@ -3990,7 +4075,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
@@ -4019,19 +4104,19 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" style="2"/>
-    <col min="7" max="7" width="15.46484375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="2"/>
+    <col min="5" max="5" width="17.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="2"/>
+    <col min="7" max="7" width="15.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>63</v>
@@ -4047,7 +4132,7 @@
       </c>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>52</v>
       </c>
@@ -4068,7 +4153,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -4089,7 +4174,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4110,7 +4195,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -4131,7 +4216,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -4154,7 +4239,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
@@ -4177,7 +4262,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -4200,7 +4285,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -4223,7 +4308,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -4246,7 +4331,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>56</v>
       </c>
@@ -4269,7 +4354,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
@@ -4292,7 +4377,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>57</v>
       </c>
@@ -4315,7 +4400,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>58</v>
       </c>
@@ -4338,7 +4423,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
@@ -4361,7 +4446,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
@@ -4384,7 +4469,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
@@ -4407,7 +4492,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -4430,7 +4515,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
@@ -4453,7 +4538,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
@@ -4476,7 +4561,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
@@ -4512,42 +4597,42 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="3" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="2.73046875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="3" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.3984375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="3" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.86328125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="3" style="24" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="3" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="3" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="3" style="19" customWidth="1"/>
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="21"/>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="16"/>
       <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -4559,27 +4644,27 @@
       <c r="D2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="19">
         <v>33439122</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="20">
         <v>1021537</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -4591,22 +4676,22 @@
       <c r="D3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="19">
         <v>7733395</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="20">
         <v>1577742</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="40" t="s">
         <v>76</v>
       </c>
       <c r="K3" s="6">
@@ -4616,8 +4701,8 @@
         <v>1777622</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4629,27 +4714,27 @@
       <c r="D4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="19">
         <v>6350222</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="20">
         <v>1267152</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -4661,59 +4746,59 @@
       <c r="D5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="19">
         <v>3224507</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="20">
         <v>481503</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:12" s="22" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="22">
         <v>306</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="23">
         <v>93064</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="24">
         <v>13309</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="23">
         <v>12467</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -4725,27 +4810,27 @@
       <c r="D7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="19">
         <v>207330</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="20">
         <v>38493</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="19">
         <v>28213</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -4757,219 +4842,219 @@
       <c r="D8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="19">
         <v>772427</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="20">
         <v>102702</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="19">
         <v>45202</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="31" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:12" s="26" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="26">
         <v>1801</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="27">
         <v>477125</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="28">
         <v>75173</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="27">
         <v>42754</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:12" s="22" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="22">
         <v>208</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="23">
         <v>84685</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="24">
         <v>11856</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="23">
         <v>10350</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="31" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:12" s="26" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="26">
         <v>607</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="27">
         <v>521484</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="28">
         <v>42334</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="27">
         <v>23491</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:12" s="22" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="22">
         <v>457</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="23">
         <v>66719</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="24">
         <v>8360</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="23">
         <v>18541</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="31" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:12" s="26" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="26">
         <v>723</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="27">
         <v>131799</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="28">
         <v>18052</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="27">
         <v>26977</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:12" s="22" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="22">
         <v>109</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="23">
         <v>24231</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="24">
         <v>4053</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="23">
         <v>1852</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -4981,59 +5066,59 @@
       <c r="D15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="19">
         <v>80247</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="20">
         <v>10752</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="19">
         <v>6329</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="31" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:12" s="26" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="26">
         <v>251</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="27">
         <v>64560</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="28">
         <v>8404</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="27">
         <v>7138</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -5045,27 +5130,27 @@
       <c r="D17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="19">
         <v>5195</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="20">
         <v>625</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="19">
         <v>38</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -5077,27 +5162,27 @@
       <c r="D18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="19">
         <v>7411</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="20">
         <v>1569</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="19">
         <v>318</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -5109,27 +5194,27 @@
       <c r="D19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="19">
         <v>12624</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="20">
         <v>1242</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="19">
         <v>330</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -5141,22 +5226,22 @@
       <c r="D20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="19">
         <v>17973</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="20">
         <v>2064</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="19">
         <v>442</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="40" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5179,252 +5264,252 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="12.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="16">
         <v>16</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="16">
         <v>35</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="16">
         <v>131</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="16">
         <v>287</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="16">
         <v>474</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="16">
         <v>1299</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="16">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="16">
         <v>403</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="16">
         <v>1105</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="16">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="16">
         <v>8</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="16">
         <v>16</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="16">
         <v>93</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="16">
         <v>197</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="16">
         <v>45</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="16">
         <v>91</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="16">
         <v>97</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="16">
         <v>201</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="16">
         <v>24</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="16">
         <v>50</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="16">
         <v>60</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="16">
         <v>156</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="21">
-        <v>52</v>
-      </c>
-      <c r="C16" s="21">
+      <c r="B16" s="16">
+        <v>52</v>
+      </c>
+      <c r="C16" s="16">
         <v>116</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="16">
         <v>0</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="16">
         <v>0</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="16">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="16">
         <v>0</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="16">
         <v>0</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="16">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="16">
         <v>0</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="16">
         <v>0</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="16">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="16">
         <v>0</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="16">
         <v>0</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="16">
         <v>-1</v>
       </c>
     </row>
@@ -5442,233 +5527,233 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.46484375" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="21.86328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="35"/>
+    <col min="1" max="1" width="19.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:22" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="32" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-    </row>
-    <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="41" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+    </row>
+    <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="36" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="36" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="33" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="33" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="35" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="35" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="38" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="39" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="38" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="39"/>
-    </row>
-    <row r="14" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="38" t="s">
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="39"/>
-    </row>
-    <row r="15" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="38" t="s">
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="39"/>
-    </row>
-    <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="39"/>
-      <c r="B16" s="38" t="s">
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="39"/>
-    </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="39"/>
-      <c r="B17" s="38" t="s">
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="39"/>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="39"/>
-      <c r="B18" s="43" t="s">
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="39"/>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="39"/>
-      <c r="B19" s="38" t="s">
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="39"/>
-    </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="39"/>
-      <c r="B20" s="38" t="s">
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="39"/>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="39"/>
-      <c r="B21" s="38" t="s">
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5684,14 +5769,14 @@
       <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>161</v>
       </c>
@@ -5699,7 +5784,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>161</v>
       </c>
@@ -5710,7 +5795,7 @@
         <v>201390</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>161</v>
       </c>
@@ -5721,7 +5806,7 @@
         <v>200422</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>161</v>
       </c>
@@ -5732,7 +5817,7 @@
         <v>200024</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>161</v>
       </c>
@@ -5743,7 +5828,7 @@
         <v>200237</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>161</v>
       </c>
@@ -5754,7 +5839,7 @@
         <v>200080</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>161</v>
       </c>
@@ -5765,13 +5850,13 @@
         <v>19384</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="6">
         <f>SUM(C2:C7)</f>
         <v>1021537</v>
       </c>
     </row>
-    <row r="9" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -5785,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -5799,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -5813,7 +5898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -5827,7 +5912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -5841,7 +5926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -5855,7 +5940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -5869,7 +5954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -5883,7 +5968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -5897,7 +5982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -5911,7 +5996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -5925,7 +6010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -5939,7 +6024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -5953,7 +6038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -5967,7 +6052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -5981,7 +6066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -5995,7 +6080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -6009,7 +6094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -6023,7 +6108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -6037,7 +6122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -6051,7 +6136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -6065,7 +6150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -6079,7 +6164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -6093,7 +6178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -6107,7 +6192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -6121,7 +6206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -6135,7 +6220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -6149,7 +6234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -6163,7 +6248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -6177,7 +6262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -6191,7 +6276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -6205,7 +6290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -6219,7 +6304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -6233,7 +6318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -6247,7 +6332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -6261,7 +6346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -6275,7 +6360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -6289,7 +6374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -6303,7 +6388,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -6317,7 +6402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -6331,7 +6416,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -6345,7 +6430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -6359,7 +6444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -6373,7 +6458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -6387,7 +6472,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -6401,7 +6486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6415,7 +6500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -6429,7 +6514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -6443,7 +6528,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -6457,7 +6542,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -6471,7 +6556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -6485,7 +6570,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -6499,7 +6584,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -6513,7 +6598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -6527,7 +6612,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>52</v>
       </c>
@@ -6541,7 +6626,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -6555,7 +6640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -6569,7 +6654,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -6583,7 +6668,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>52</v>
       </c>
@@ -6597,7 +6682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -6611,7 +6696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -6625,7 +6710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>52</v>
       </c>
@@ -6639,7 +6724,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>52</v>
       </c>
@@ -6653,7 +6738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>52</v>
       </c>
@@ -6667,7 +6752,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -6681,7 +6766,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -6695,7 +6780,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>52</v>
       </c>
@@ -6709,7 +6794,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -6723,7 +6808,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -6737,7 +6822,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -6751,7 +6836,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -6765,7 +6850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -6779,7 +6864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>52</v>
       </c>
@@ -6793,7 +6878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>52</v>
       </c>
@@ -6807,7 +6892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>52</v>
       </c>
@@ -6821,7 +6906,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>52</v>
       </c>
@@ -6835,7 +6920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>52</v>
       </c>
@@ -6849,7 +6934,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>52</v>
       </c>
@@ -6863,7 +6948,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -6877,7 +6962,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>52</v>
       </c>
@@ -6891,7 +6976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>52</v>
       </c>
@@ -6905,7 +6990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>52</v>
       </c>
@@ -6919,7 +7004,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>52</v>
       </c>
@@ -6933,7 +7018,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>52</v>
       </c>
@@ -6947,7 +7032,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>52</v>
       </c>
@@ -6961,7 +7046,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>52</v>
       </c>
@@ -6975,7 +7060,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>52</v>
       </c>
@@ -6989,7 +7074,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -7003,7 +7088,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>52</v>
       </c>
@@ -7017,7 +7102,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -7031,7 +7116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>52</v>
       </c>
@@ -7045,7 +7130,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>52</v>
       </c>
@@ -7059,7 +7144,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>52</v>
       </c>
@@ -7073,7 +7158,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>52</v>
       </c>
@@ -7087,7 +7172,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>52</v>
       </c>
@@ -7101,7 +7186,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>52</v>
       </c>
@@ -7115,7 +7200,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>52</v>
       </c>
@@ -7129,7 +7214,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>52</v>
       </c>
@@ -7143,7 +7228,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -7157,7 +7242,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>52</v>
       </c>
@@ -7171,7 +7256,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>52</v>
       </c>
@@ -7185,7 +7270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>52</v>
       </c>
@@ -7199,7 +7284,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -7213,7 +7298,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>52</v>
       </c>
@@ -7227,7 +7312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>52</v>
       </c>
@@ -7241,7 +7326,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>52</v>
       </c>
@@ -7255,7 +7340,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>52</v>
       </c>
@@ -7269,7 +7354,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="116" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>52</v>
       </c>
@@ -7283,7 +7368,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="117" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>52</v>
       </c>
@@ -7297,7 +7382,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>52</v>
       </c>
@@ -7311,7 +7396,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>52</v>
       </c>
@@ -7325,7 +7410,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>52</v>
       </c>
@@ -7339,7 +7424,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="121" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>52</v>
       </c>
@@ -7353,7 +7438,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>52</v>
       </c>
@@ -7367,7 +7452,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>52</v>
       </c>
@@ -7381,7 +7466,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>52</v>
       </c>
@@ -7395,7 +7480,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>52</v>
       </c>
@@ -7409,7 +7494,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>52</v>
       </c>
@@ -7423,7 +7508,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="127" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>52</v>
       </c>
@@ -7437,7 +7522,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>52</v>
       </c>
@@ -7451,7 +7536,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>52</v>
       </c>
@@ -7465,7 +7550,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>52</v>
       </c>
@@ -7479,7 +7564,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>52</v>
       </c>
@@ -7493,7 +7578,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>52</v>
       </c>
@@ -7507,7 +7592,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="133" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>52</v>
       </c>
@@ -7521,7 +7606,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="134" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>52</v>
       </c>
@@ -7535,7 +7620,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="135" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>52</v>
       </c>
@@ -7549,7 +7634,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>52</v>
       </c>
@@ -7563,7 +7648,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="137" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>52</v>
       </c>
@@ -7577,7 +7662,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>52</v>
       </c>
@@ -7591,7 +7676,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>52</v>
       </c>
@@ -7605,7 +7690,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="140" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>52</v>
       </c>
@@ -7619,7 +7704,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>52</v>
       </c>
@@ -7633,7 +7718,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="142" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>52</v>
       </c>
@@ -7647,7 +7732,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="143" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>52</v>
       </c>
@@ -7661,7 +7746,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>52</v>
       </c>
@@ -7675,7 +7760,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>52</v>
       </c>
@@ -7689,7 +7774,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="146" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>52</v>
       </c>
@@ -7703,7 +7788,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>52</v>
       </c>
@@ -7717,7 +7802,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>52</v>
       </c>
@@ -7731,7 +7816,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>52</v>
       </c>
@@ -7745,7 +7830,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>52</v>
       </c>
@@ -7759,7 +7844,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="151" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>52</v>
       </c>
@@ -7773,7 +7858,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="152" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>52</v>
       </c>
@@ -7787,7 +7872,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="153" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>52</v>
       </c>
@@ -7801,7 +7886,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>52</v>
       </c>
@@ -7815,7 +7900,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="155" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>52</v>
       </c>
@@ -7829,7 +7914,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>52</v>
       </c>
@@ -7843,7 +7928,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>52</v>
       </c>
@@ -7857,7 +7942,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>52</v>
       </c>
@@ -7871,7 +7956,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>52</v>
       </c>
@@ -7885,7 +7970,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="160" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>52</v>
       </c>
@@ -7899,7 +7984,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="161" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>52</v>
       </c>
@@ -7913,7 +7998,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="162" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>52</v>
       </c>
@@ -7927,7 +8012,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="163" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>52</v>
       </c>
@@ -7941,7 +8026,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="164" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>52</v>
       </c>
@@ -7955,7 +8040,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="165" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>52</v>
       </c>
@@ -7969,7 +8054,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="166" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>52</v>
       </c>
@@ -7983,7 +8068,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="167" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>52</v>
       </c>
@@ -7997,7 +8082,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="168" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>52</v>
       </c>
@@ -8011,7 +8096,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>52</v>
       </c>
@@ -8025,7 +8110,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="170" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>52</v>
       </c>
@@ -8039,7 +8124,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="171" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>52</v>
       </c>
@@ -8053,7 +8138,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="172" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>52</v>
       </c>
@@ -8067,7 +8152,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="173" spans="1:4" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>52</v>
       </c>
@@ -8081,7 +8166,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C174" s="6">
         <f>SUM(C9:C173)</f>
         <v>33485548</v>
@@ -8101,17 +8186,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="21.265625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.73046875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1" s="6" t="s">
         <v>124</v>
       </c>
@@ -8119,7 +8204,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -8136,7 +8221,7 @@
         <v>200007</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>126</v>
       </c>
@@ -8150,7 +8235,7 @@
         <v>200219</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>128</v>
       </c>
@@ -8164,7 +8249,7 @@
         <v>201285</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>129</v>
       </c>
@@ -8178,7 +8263,7 @@
         <v>203448</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>131</v>
       </c>
@@ -8192,7 +8277,7 @@
         <v>200097</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>133</v>
       </c>
@@ -8206,7 +8291,7 @@
         <v>200481</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>135</v>
       </c>
@@ -8220,7 +8305,7 @@
         <v>61615</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>137</v>
       </c>
@@ -8232,7 +8317,7 @@
         <v>1267152</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>138</v>
       </c>
@@ -8240,7 +8325,7 @@
         <v>213524</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>139</v>
       </c>
@@ -8248,7 +8333,7 @@
         <v>211447</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>140</v>
       </c>
@@ -8256,7 +8341,7 @@
         <v>201095</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>141</v>
       </c>
@@ -8264,7 +8349,7 @@
         <v>200162</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>142</v>
       </c>
@@ -8272,7 +8357,7 @@
         <v>200229</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>143</v>
       </c>
@@ -8280,7 +8365,7 @@
         <v>203327</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>144</v>
       </c>
@@ -8288,7 +8373,7 @@
         <v>203212</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>145</v>
       </c>
@@ -8296,7 +8381,7 @@
         <v>200547</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>146</v>
       </c>
@@ -8304,7 +8389,7 @@
         <v>200002</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>147</v>
       </c>
@@ -8312,7 +8397,7 @@
         <v>200121</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>148</v>
       </c>
@@ -8320,7 +8405,7 @@
         <v>200920</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>149</v>
       </c>
@@ -8328,7 +8413,7 @@
         <v>202492</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>150</v>
       </c>
@@ -8336,7 +8421,7 @@
         <v>209880</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>151</v>
       </c>
@@ -8344,7 +8429,7 @@
         <v>200245</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>152</v>
       </c>
@@ -8352,7 +8437,7 @@
         <v>225371</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>153</v>
       </c>
@@ -8360,7 +8445,7 @@
         <v>211351</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>154</v>
       </c>
@@ -8368,7 +8453,7 @@
         <v>204172</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>155</v>
       </c>
@@ -8376,7 +8461,7 @@
         <v>247138</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>156</v>
       </c>
@@ -8384,7 +8469,7 @@
         <v>200017</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>157</v>
       </c>
@@ -8392,7 +8477,7 @@
         <v>200723</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>158</v>
       </c>
@@ -8400,7 +8485,7 @@
         <v>201189</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>159</v>
       </c>
@@ -8408,7 +8493,7 @@
         <v>229820</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>160</v>
       </c>
@@ -8416,7 +8501,7 @@
         <v>10599</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="6">
         <f>SUM(C2:C32)</f>
         <v>6350222</v>
@@ -8436,16 +8521,16 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" customWidth="1"/>
-    <col min="4" max="4" width="16.46484375" customWidth="1"/>
-    <col min="5" max="5" width="12.46484375" customWidth="1"/>
-    <col min="6" max="6" width="14.265625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
         <v>71</v>
       </c>
@@ -8457,7 +8542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -8475,7 +8560,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>78</v>
@@ -8491,7 +8576,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>79</v>
@@ -8507,7 +8592,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>80</v>
@@ -8523,7 +8608,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>81</v>
@@ -8539,7 +8624,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>82</v>
@@ -8555,7 +8640,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>83</v>
@@ -8571,7 +8656,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>84</v>
@@ -8587,7 +8672,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>85</v>
@@ -8602,7 +8687,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>86</v>
       </c>
@@ -8611,7 +8696,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>87</v>
       </c>
@@ -8620,7 +8705,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>88</v>
       </c>
@@ -8629,7 +8714,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>89</v>
       </c>
@@ -8638,7 +8723,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>90</v>
       </c>
@@ -8647,7 +8732,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>91</v>
       </c>
@@ -8656,7 +8741,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>92</v>
       </c>
@@ -8665,7 +8750,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>93</v>
       </c>
@@ -8674,7 +8759,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>94</v>
       </c>
@@ -8683,7 +8768,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>95</v>
       </c>
@@ -8692,7 +8777,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>96</v>
       </c>
@@ -8701,7 +8786,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>97</v>
       </c>
@@ -8710,7 +8795,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>98</v>
       </c>
@@ -8719,7 +8804,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>99</v>
       </c>
@@ -8728,7 +8813,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>100</v>
       </c>
@@ -8737,7 +8822,7 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>101</v>
       </c>
@@ -8746,7 +8831,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>102</v>
       </c>
@@ -8755,7 +8840,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>103</v>
       </c>
@@ -8764,7 +8849,7 @@
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>104</v>
       </c>
@@ -8773,7 +8858,7 @@
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>105</v>
       </c>
@@ -8782,7 +8867,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>106</v>
       </c>
@@ -8791,7 +8876,7 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>107</v>
       </c>
@@ -8800,7 +8885,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>108</v>
       </c>
@@ -8809,7 +8894,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>109</v>
       </c>
@@ -8818,7 +8903,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>110</v>
       </c>
@@ -8827,7 +8912,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>111</v>
       </c>
@@ -8836,7 +8921,7 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>112</v>
       </c>
@@ -8845,7 +8930,7 @@
       </c>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>113</v>
       </c>
@@ -8854,7 +8939,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>114</v>
       </c>
@@ -8863,8 +8948,8 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C40" s="20">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="15">
         <f>SUM(C2:C39)</f>
         <v>7733395</v>
       </c>

--- a/Result/result_count.xlsx
+++ b/Result/result_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TYJ\TornadoCluster\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB823FF-4DF0-4A8A-8089-EFBA8CE84966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A39F6-2E50-4910-832B-64D0410C98C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3900" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="222">
   <si>
     <t>100ETH</t>
   </si>
@@ -812,6 +812,30 @@
       </rPr>
       <t>算法</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇聚模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U-Transfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U-POOling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-POOling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-Transfer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1498,9 +1522,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1545,9 +1566,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1581,6 +1599,17 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1869,1726 +1898,1982 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="6" width="9.125" style="2" bestFit="1"/>
-    <col min="7" max="7" width="2.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="2.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="2.875" style="2" customWidth="1"/>
-    <col min="23" max="24" width="9.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="15.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.125" style="2"/>
+    <col min="3" max="3" width="2.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="2.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="2.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.375" style="2" customWidth="1"/>
+    <col min="23" max="26" width="9.125" style="2"/>
+    <col min="27" max="28" width="9.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="15.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="68" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="68" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="71"/>
       <c r="B1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="133" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="133" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="136" t="s">
+        <v>216</v>
+      </c>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" s="136"/>
+      <c r="W1" s="135" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="135" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="135" t="s">
-        <v>209</v>
-      </c>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="136" t="s">
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="134" t="s">
         <v>210</v>
       </c>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-    </row>
-    <row r="2" spans="1:27" s="44" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+    </row>
+    <row r="2" spans="1:31" s="44" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="94"/>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="94"/>
+      <c r="F2" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="96"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="94"/>
+      <c r="K2" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="98"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="94"/>
+      <c r="P2" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94" t="s">
+        <v>218</v>
+      </c>
+      <c r="T2" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="U2" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="V2" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="W2" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="X2" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="Y2" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="Z2" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="94"/>
-      <c r="O2" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" s="94"/>
-      <c r="T2" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="100"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="101" t="s">
+      <c r="AA2" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="X2" s="102" t="s">
+      <c r="AB2" s="102" t="s">
         <v>213</v>
       </c>
-      <c r="Y2" s="103" t="s">
+      <c r="AC2" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="Z2" s="94" t="s">
+      <c r="AD2" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="94" t="s">
+      <c r="AE2" s="94" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="6">
         <v>24396</v>
       </c>
-      <c r="C3" s="84">
-        <v>251</v>
-      </c>
-      <c r="D3" s="85">
-        <v>646</v>
-      </c>
-      <c r="E3" s="61">
+      <c r="C3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="62">
+        <v>4272</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="63">
+        <v>9446</v>
+      </c>
+      <c r="G3" s="63">
+        <f>F3/D3</f>
+        <v>2.2111423220973783</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="64">
+        <v>312</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="65">
+        <v>848</v>
+      </c>
+      <c r="L3" s="65">
+        <f>K3/I3</f>
+        <v>2.7179487179487181</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="66">
+        <v>343</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="67">
+        <v>700</v>
+      </c>
+      <c r="Q3" s="67">
+        <f>P3/N3</f>
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="R3" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="45">
+        <v>1529</v>
+      </c>
+      <c r="T3" s="45">
+        <v>6321</v>
+      </c>
+      <c r="U3" s="45">
+        <v>1304</v>
+      </c>
+      <c r="V3" s="45">
+        <v>5098</v>
+      </c>
+      <c r="W3" s="84">
+        <v>1030</v>
+      </c>
+      <c r="X3" s="85">
+        <v>2282</v>
+      </c>
+      <c r="Y3" s="61">
         <v>1</v>
       </c>
-      <c r="F3" s="61">
+      <c r="Z3" s="61">
         <v>2</v>
       </c>
-      <c r="G3" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="62">
-        <v>4272</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="63">
-        <v>9446</v>
-      </c>
-      <c r="K3" s="63">
-        <f>J3/H3</f>
-        <v>2.2111423220973783</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="64">
-        <v>312</v>
-      </c>
-      <c r="N3" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="65">
-        <v>848</v>
-      </c>
-      <c r="P3" s="65">
-        <f>O3/M3</f>
-        <v>2.7179487179487181</v>
-      </c>
-      <c r="Q3" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="66">
-        <v>343</v>
-      </c>
-      <c r="S3" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" s="67">
-        <v>700</v>
-      </c>
-      <c r="U3" s="67">
-        <f>T3/R3</f>
-        <v>2.0408163265306123</v>
-      </c>
-      <c r="V3" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="61">
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="61">
         <v>84</v>
       </c>
-      <c r="AA3" s="61">
+      <c r="AE3" s="61">
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="6">
         <v>39882</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5737</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="10">
+        <v>16878</v>
+      </c>
+      <c r="G4" s="47">
+        <f t="shared" ref="G4:G21" si="0">F4/D4</f>
+        <v>2.9419557259891929</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="48">
+        <v>829</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="49">
+        <v>2740</v>
+      </c>
+      <c r="L4" s="49">
+        <f t="shared" ref="L4:L17" si="1">K4/I4</f>
+        <v>3.3051869722557297</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="50">
+        <v>1037</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="51">
+        <v>2270</v>
+      </c>
+      <c r="Q4" s="51">
+        <f t="shared" ref="Q4:Q17" si="2">P4/N4</f>
+        <v>2.1890067502410799</v>
+      </c>
+      <c r="R4" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="45">
+        <v>2307</v>
+      </c>
+      <c r="T4" s="45">
+        <v>6443</v>
+      </c>
+      <c r="U4" s="45">
+        <v>2845</v>
+      </c>
+      <c r="V4" s="45">
+        <v>8294</v>
+      </c>
+      <c r="W4" s="77">
         <v>4190</v>
       </c>
-      <c r="D4" s="78">
+      <c r="X4" s="78">
         <v>8930</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="9">
-        <v>5737</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="10">
-        <v>16878</v>
-      </c>
-      <c r="K4" s="47">
-        <f t="shared" ref="K4:K21" si="0">J4/H4</f>
-        <v>2.9419557259891929</v>
-      </c>
-      <c r="L4" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="48">
-        <v>829</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="49">
-        <v>2740</v>
-      </c>
-      <c r="P4" s="49">
-        <f t="shared" ref="P4:P17" si="1">O4/M4</f>
-        <v>3.3051869722557297</v>
-      </c>
-      <c r="Q4" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="50">
-        <v>1037</v>
-      </c>
-      <c r="S4" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="T4" s="51">
-        <v>2270</v>
-      </c>
-      <c r="U4" s="51">
-        <f t="shared" ref="U4:U17" si="2">T4/R4</f>
-        <v>2.1890067502410799</v>
-      </c>
-      <c r="V4" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="W4" s="74"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="45">
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="45">
         <v>134</v>
       </c>
-      <c r="AA4" s="45">
+      <c r="AE4" s="45">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6">
         <v>36775</v>
       </c>
-      <c r="C5" s="77">
-        <v>96</v>
-      </c>
-      <c r="D5" s="78">
-        <v>265</v>
-      </c>
-      <c r="E5" s="45">
-        <v>26</v>
-      </c>
-      <c r="F5" s="45">
-        <v>87</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="C5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="9">
         <v>4674</v>
       </c>
-      <c r="I5" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="E5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="10">
         <v>14520</v>
       </c>
-      <c r="K5" s="47">
+      <c r="G5" s="47">
         <f t="shared" si="0"/>
         <v>3.1065468549422337</v>
       </c>
-      <c r="L5" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="48">
+      <c r="H5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="48">
         <v>778</v>
       </c>
-      <c r="N5" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="11">
+      <c r="J5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="11">
         <v>2588</v>
       </c>
-      <c r="P5" s="49">
+      <c r="L5" s="49">
         <f t="shared" si="1"/>
         <v>3.3264781491002569</v>
       </c>
-      <c r="Q5" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="50">
+      <c r="M5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="50">
         <v>850</v>
       </c>
-      <c r="S5" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="T5" s="51">
+      <c r="O5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="51">
         <v>1839</v>
       </c>
-      <c r="U5" s="51">
+      <c r="Q5" s="51">
         <f t="shared" si="2"/>
         <v>2.1635294117647059</v>
       </c>
-      <c r="V5" s="73" t="s">
+      <c r="R5" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="W5" s="74"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="76"/>
+      <c r="S5" s="45">
+        <v>1594</v>
+      </c>
+      <c r="T5" s="45">
+        <v>4447</v>
+      </c>
+      <c r="U5" s="45">
+        <v>2552</v>
+      </c>
+      <c r="V5" s="45">
+        <v>7983</v>
+      </c>
+      <c r="W5" s="77">
+        <v>3771</v>
+      </c>
+      <c r="X5" s="78">
+        <v>8105</v>
+      </c>
+      <c r="Y5" s="45">
+        <v>26</v>
+      </c>
       <c r="Z5" s="45">
+        <v>87</v>
+      </c>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="45">
         <v>144</v>
       </c>
-      <c r="AA5" s="45">
+      <c r="AE5" s="45">
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="139">
         <v>16936</v>
       </c>
-      <c r="C6" s="92">
-        <v>972</v>
-      </c>
-      <c r="D6" s="93">
-        <v>2126</v>
-      </c>
-      <c r="E6" s="52">
-        <v>47</v>
-      </c>
-      <c r="F6" s="52">
-        <v>116</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="53">
+      <c r="C6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="53">
         <v>1312</v>
       </c>
-      <c r="I6" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="54">
+      <c r="E6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="54">
         <v>4836</v>
       </c>
-      <c r="K6" s="55">
+      <c r="G6" s="55">
         <f t="shared" si="0"/>
         <v>3.6859756097560976</v>
       </c>
-      <c r="L6" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="56">
+      <c r="H6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="56">
         <v>259</v>
       </c>
-      <c r="N6" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="57">
+      <c r="J6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="57">
         <v>1442</v>
       </c>
-      <c r="P6" s="58">
+      <c r="L6" s="58">
         <f t="shared" si="1"/>
         <v>5.5675675675675675</v>
       </c>
-      <c r="Q6" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" s="59">
+      <c r="M6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="59">
         <v>264</v>
       </c>
-      <c r="S6" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="T6" s="60">
+      <c r="O6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="60">
         <v>625</v>
       </c>
-      <c r="U6" s="87">
+      <c r="Q6" s="87">
         <f t="shared" si="2"/>
         <v>2.3674242424242422</v>
       </c>
-      <c r="V6" s="88" t="s">
+      <c r="R6" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="W6" s="89"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="91"/>
+      <c r="S6" s="52">
+        <v>500</v>
+      </c>
+      <c r="T6" s="52">
+        <v>1234</v>
+      </c>
+      <c r="U6" s="52">
+        <v>985</v>
+      </c>
+      <c r="V6" s="52">
+        <v>3125</v>
+      </c>
+      <c r="W6" s="92">
+        <v>972</v>
+      </c>
+      <c r="X6" s="93">
+        <v>2126</v>
+      </c>
+      <c r="Y6" s="52">
+        <v>47</v>
+      </c>
       <c r="Z6" s="52">
+        <v>116</v>
+      </c>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="91"/>
+      <c r="AD6" s="52">
         <v>135</v>
       </c>
-      <c r="AA6" s="52">
+      <c r="AE6" s="52">
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="120" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
+    <row r="7" spans="1:31" s="138" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="137">
         <v>306</v>
       </c>
-      <c r="C7" s="77">
-        <v>17</v>
-      </c>
-      <c r="D7" s="78">
-        <v>37</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="108">
+      <c r="C7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="62">
         <v>34</v>
       </c>
-      <c r="I7" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="109">
+      <c r="E7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="63">
         <v>63</v>
       </c>
-      <c r="K7" s="109">
+      <c r="G7" s="63">
         <f t="shared" si="0"/>
         <v>1.8529411764705883</v>
       </c>
-      <c r="L7" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="110">
+      <c r="H7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="64">
         <v>4</v>
       </c>
-      <c r="N7" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="111">
+      <c r="J7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="65">
         <v>7</v>
       </c>
-      <c r="P7" s="111">
+      <c r="L7" s="65">
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="Q7" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="112">
+      <c r="M7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="66">
         <v>1</v>
       </c>
-      <c r="S7" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="T7" s="113">
+      <c r="O7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="67">
         <v>2</v>
       </c>
-      <c r="U7" s="113">
+      <c r="Q7" s="67">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="V7" s="114" t="s">
+      <c r="R7" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="W7" s="115">
+      <c r="S7" s="61">
+        <v>19</v>
+      </c>
+      <c r="T7" s="61">
+        <v>40</v>
+      </c>
+      <c r="U7" s="61">
+        <v>27</v>
+      </c>
+      <c r="V7" s="61">
+        <v>81</v>
+      </c>
+      <c r="W7" s="84">
+        <v>17</v>
+      </c>
+      <c r="X7" s="85">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="81">
         <v>16</v>
       </c>
-      <c r="X7" s="116">
+      <c r="AB7" s="82">
         <v>35</v>
       </c>
-      <c r="Y7" s="117">
+      <c r="AC7" s="83">
         <v>3</v>
       </c>
-      <c r="Z7" s="107">
+      <c r="AD7" s="61">
         <v>4</v>
       </c>
-      <c r="AA7" s="107">
+      <c r="AE7" s="61">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="6">
         <v>883</v>
       </c>
-      <c r="C8" s="77">
-        <v>129</v>
-      </c>
-      <c r="D8" s="78">
-        <v>283</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="46">
+      <c r="C8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="46">
         <v>71</v>
       </c>
-      <c r="I8" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="47">
+      <c r="E8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="47">
         <v>143</v>
       </c>
-      <c r="K8" s="47">
+      <c r="G8" s="47">
         <f t="shared" si="0"/>
         <v>2.0140845070422535</v>
       </c>
-      <c r="L8" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="48">
+      <c r="H8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="48">
         <v>8</v>
       </c>
-      <c r="N8" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="49">
+      <c r="J8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="49">
         <v>16</v>
       </c>
-      <c r="P8" s="49">
+      <c r="L8" s="49">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q8" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="50">
+      <c r="M8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="50">
         <v>13</v>
       </c>
-      <c r="S8" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="T8" s="51">
+      <c r="O8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="51">
         <v>27</v>
       </c>
-      <c r="U8" s="51">
+      <c r="Q8" s="51">
         <f t="shared" si="2"/>
         <v>2.0769230769230771</v>
       </c>
-      <c r="V8" s="73" t="s">
+      <c r="R8" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="W8" s="74">
+      <c r="S8" s="45">
+        <v>34</v>
+      </c>
+      <c r="T8" s="45">
+        <v>70</v>
+      </c>
+      <c r="U8" s="45">
+        <v>54</v>
+      </c>
+      <c r="V8" s="45">
+        <v>178</v>
+      </c>
+      <c r="W8" s="77">
+        <v>129</v>
+      </c>
+      <c r="X8" s="78">
+        <v>283</v>
+      </c>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="74">
         <v>131</v>
       </c>
-      <c r="X8" s="75">
+      <c r="AB8" s="75">
         <v>287</v>
       </c>
-      <c r="Y8" s="76">
+      <c r="AC8" s="76">
         <v>4</v>
       </c>
-      <c r="Z8" s="45">
+      <c r="AD8" s="45">
         <v>4</v>
       </c>
-      <c r="AA8" s="45">
+      <c r="AE8" s="45">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="6">
         <v>2292</v>
       </c>
-      <c r="C9" s="77">
-        <v>474</v>
-      </c>
-      <c r="D9" s="78">
-        <v>1303</v>
-      </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="46">
+      <c r="C9" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="46">
         <v>191</v>
       </c>
-      <c r="I9" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="47">
+      <c r="E9" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="47">
         <v>414</v>
       </c>
-      <c r="K9" s="47">
+      <c r="G9" s="47">
         <f t="shared" si="0"/>
         <v>2.167539267015707</v>
       </c>
-      <c r="L9" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="48">
+      <c r="H9" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="48">
         <v>28</v>
       </c>
-      <c r="N9" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="49">
+      <c r="J9" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="49">
         <v>60</v>
       </c>
-      <c r="P9" s="49">
+      <c r="L9" s="49">
         <f t="shared" si="1"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="Q9" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" s="50">
+      <c r="M9" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="50">
         <v>38</v>
       </c>
-      <c r="S9" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="T9" s="51">
+      <c r="O9" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="51">
         <v>76</v>
       </c>
-      <c r="U9" s="51">
+      <c r="Q9" s="51">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="V9" s="73" t="s">
+      <c r="R9" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="W9" s="74">
+      <c r="S9" s="45">
+        <v>31</v>
+      </c>
+      <c r="T9" s="45">
+        <v>65</v>
+      </c>
+      <c r="U9" s="45">
+        <v>98</v>
+      </c>
+      <c r="V9" s="45">
+        <v>332</v>
+      </c>
+      <c r="W9" s="77">
         <v>474</v>
       </c>
-      <c r="X9" s="75">
+      <c r="X9" s="78">
+        <v>1303</v>
+      </c>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="74">
+        <v>474</v>
+      </c>
+      <c r="AB9" s="75">
         <v>1299</v>
       </c>
-      <c r="Y9" s="76">
+      <c r="AC9" s="76">
         <v>13</v>
       </c>
-      <c r="Z9" s="45">
+      <c r="AD9" s="45">
         <v>13</v>
       </c>
-      <c r="AA9" s="45">
+      <c r="AE9" s="45">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="139">
         <v>1801</v>
       </c>
-      <c r="C10" s="92">
-        <v>402</v>
-      </c>
-      <c r="D10" s="93">
-        <v>1101</v>
-      </c>
-      <c r="E10" s="133"/>
-      <c r="G10" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="53">
+      <c r="C10" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="53">
         <v>113</v>
       </c>
-      <c r="I10" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="54">
+      <c r="E10" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="54">
         <v>254</v>
       </c>
-      <c r="K10" s="54">
+      <c r="G10" s="54">
         <f t="shared" si="0"/>
         <v>2.247787610619469</v>
       </c>
-      <c r="L10" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="56">
+      <c r="H10" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="56">
         <v>19</v>
       </c>
-      <c r="N10" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="57">
+      <c r="J10" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="57">
         <v>46</v>
       </c>
-      <c r="P10" s="57">
+      <c r="L10" s="57">
         <f t="shared" si="1"/>
         <v>2.4210526315789473</v>
       </c>
-      <c r="Q10" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" s="59">
+      <c r="M10" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="59">
         <v>16</v>
       </c>
-      <c r="S10" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="T10" s="60">
+      <c r="O10" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="60">
         <v>33</v>
       </c>
-      <c r="U10" s="60">
+      <c r="Q10" s="60">
         <f t="shared" si="2"/>
         <v>2.0625</v>
       </c>
-      <c r="V10" s="88" t="s">
+      <c r="R10" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="W10" s="89">
+      <c r="S10" s="52">
+        <v>21</v>
+      </c>
+      <c r="T10" s="52">
+        <v>46</v>
+      </c>
+      <c r="U10" s="52">
+        <v>92</v>
+      </c>
+      <c r="V10" s="52">
+        <v>306</v>
+      </c>
+      <c r="W10" s="92">
+        <v>402</v>
+      </c>
+      <c r="X10" s="93">
+        <v>1101</v>
+      </c>
+      <c r="Y10" s="131"/>
+      <c r="AA10" s="89">
         <v>403</v>
       </c>
-      <c r="X10" s="90">
+      <c r="AB10" s="90">
         <v>1105</v>
       </c>
-      <c r="Y10" s="91">
+      <c r="AC10" s="91">
         <v>16</v>
       </c>
-      <c r="Z10" s="52">
+      <c r="AD10" s="52">
         <v>16</v>
       </c>
-      <c r="AA10" s="52">
+      <c r="AE10" s="52">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="120" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+    <row r="11" spans="1:31" s="138" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="137">
         <v>457</v>
       </c>
-      <c r="C11" s="118">
-        <v>44</v>
-      </c>
-      <c r="D11" s="119">
-        <v>89</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="123">
+      <c r="C11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="42">
         <v>82</v>
       </c>
-      <c r="I11" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="124">
+      <c r="E11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="43">
         <v>151</v>
       </c>
-      <c r="K11" s="109">
+      <c r="G11" s="63">
         <f t="shared" si="0"/>
         <v>1.8414634146341464</v>
       </c>
-      <c r="L11" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="110">
+      <c r="H11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="64">
         <v>7</v>
       </c>
-      <c r="N11" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="125">
+      <c r="J11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="140">
         <v>12</v>
       </c>
-      <c r="P11" s="111">
+      <c r="L11" s="65">
         <f t="shared" si="1"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="Q11" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="R11" s="112">
+      <c r="M11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="66">
         <v>6</v>
       </c>
-      <c r="S11" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="T11" s="113">
+      <c r="O11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="67">
         <v>11</v>
       </c>
-      <c r="U11" s="113">
+      <c r="Q11" s="67">
         <f t="shared" si="2"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="V11" s="114" t="s">
+      <c r="R11" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="115">
+      <c r="S11" s="61">
+        <v>42</v>
+      </c>
+      <c r="T11" s="61">
+        <v>84</v>
+      </c>
+      <c r="U11" s="61">
+        <v>29</v>
+      </c>
+      <c r="V11" s="61">
+        <v>68</v>
+      </c>
+      <c r="W11" s="84">
+        <v>44</v>
+      </c>
+      <c r="X11" s="85">
+        <v>89</v>
+      </c>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="81">
         <v>45</v>
       </c>
-      <c r="X11" s="116">
+      <c r="AB11" s="82">
         <v>91</v>
       </c>
-      <c r="Y11" s="117">
+      <c r="AC11" s="83">
         <v>3</v>
       </c>
-      <c r="Z11" s="107">
+      <c r="AD11" s="61">
         <v>8</v>
       </c>
-      <c r="AA11" s="107">
+      <c r="AE11" s="61">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="126" t="s">
+    <row r="12" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="139">
         <v>723</v>
       </c>
-      <c r="C12" s="92">
-        <v>96</v>
-      </c>
-      <c r="D12" s="93">
-        <v>199</v>
-      </c>
-      <c r="E12" s="134"/>
-      <c r="G12" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="127">
+      <c r="C12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="125">
         <v>107</v>
       </c>
-      <c r="I12" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="128">
+      <c r="E12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="126">
         <v>216</v>
       </c>
-      <c r="K12" s="54">
+      <c r="G12" s="54">
         <f t="shared" si="0"/>
         <v>2.0186915887850465</v>
       </c>
-      <c r="L12" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="56">
+      <c r="H12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="56">
         <v>12</v>
       </c>
-      <c r="N12" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="57">
+      <c r="J12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="57">
         <v>28</v>
       </c>
-      <c r="P12" s="57">
+      <c r="L12" s="57">
         <f t="shared" si="1"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="Q12" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="R12" s="59">
+      <c r="M12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="59">
         <v>17</v>
       </c>
-      <c r="S12" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="T12" s="60">
+      <c r="O12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="60">
         <v>36</v>
       </c>
-      <c r="U12" s="60">
+      <c r="Q12" s="60">
         <f t="shared" si="2"/>
         <v>2.1176470588235294</v>
       </c>
-      <c r="V12" s="88" t="s">
+      <c r="R12" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="W12" s="89">
+      <c r="S12" s="52">
+        <v>36</v>
+      </c>
+      <c r="T12" s="52">
+        <v>73</v>
+      </c>
+      <c r="U12" s="52">
+        <v>43</v>
+      </c>
+      <c r="V12" s="52">
+        <v>104</v>
+      </c>
+      <c r="W12" s="92">
+        <v>96</v>
+      </c>
+      <c r="X12" s="93">
+        <v>199</v>
+      </c>
+      <c r="Y12" s="132"/>
+      <c r="AA12" s="89">
         <v>97</v>
       </c>
-      <c r="X12" s="90">
+      <c r="AB12" s="90">
         <v>201</v>
       </c>
-      <c r="Y12" s="91">
+      <c r="AC12" s="91">
         <v>4</v>
       </c>
-      <c r="Z12" s="52">
+      <c r="AD12" s="52">
         <v>2</v>
       </c>
-      <c r="AA12" s="52">
+      <c r="AE12" s="52">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="120" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="122" t="s">
+    <row r="13" spans="1:31" s="138" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="137">
         <v>208</v>
       </c>
-      <c r="C13" s="84">
-        <v>9</v>
-      </c>
-      <c r="D13" s="85">
-        <v>18</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="123">
+      <c r="C13" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="42">
         <v>41</v>
       </c>
-      <c r="I13" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="124">
+      <c r="E13" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="43">
         <v>76</v>
       </c>
-      <c r="K13" s="109">
+      <c r="G13" s="63">
         <f t="shared" si="0"/>
         <v>1.8536585365853659</v>
       </c>
-      <c r="L13" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="110">
+      <c r="H13" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="64">
         <v>0</v>
       </c>
-      <c r="N13" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="125">
+      <c r="J13" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="140">
         <v>0</v>
       </c>
-      <c r="P13" s="130" t="s">
+      <c r="L13" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="Q13" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" s="112">
+      <c r="M13" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="66">
         <v>1</v>
       </c>
-      <c r="S13" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="T13" s="113">
+      <c r="O13" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="67">
         <v>2</v>
       </c>
-      <c r="U13" s="113">
+      <c r="Q13" s="67">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="V13" s="114" t="s">
+      <c r="R13" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="W13" s="115">
+      <c r="S13" s="61">
         <v>8</v>
       </c>
-      <c r="X13" s="116">
+      <c r="T13" s="61">
         <v>16</v>
       </c>
-      <c r="Y13" s="117">
+      <c r="U13" s="61">
+        <v>18</v>
+      </c>
+      <c r="V13" s="61">
+        <v>70</v>
+      </c>
+      <c r="W13" s="84">
+        <v>9</v>
+      </c>
+      <c r="X13" s="85">
+        <v>18</v>
+      </c>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="81">
+        <v>8</v>
+      </c>
+      <c r="AB13" s="82">
+        <v>16</v>
+      </c>
+      <c r="AC13" s="83">
         <v>2</v>
       </c>
-      <c r="Z13" s="107">
+      <c r="AD13" s="61">
         <v>3</v>
       </c>
-      <c r="AA13" s="107">
+      <c r="AE13" s="61">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="126" t="s">
+    <row r="14" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="124" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="26">
         <v>607</v>
       </c>
-      <c r="C14" s="92">
-        <v>94</v>
-      </c>
-      <c r="D14" s="93">
-        <v>199</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="127">
+      <c r="C14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="125">
         <v>107</v>
       </c>
-      <c r="I14" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="128">
+      <c r="E14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="126">
         <v>209</v>
       </c>
-      <c r="K14" s="54">
+      <c r="G14" s="54">
         <f t="shared" si="0"/>
         <v>1.9532710280373833</v>
       </c>
-      <c r="L14" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="56">
+      <c r="H14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="56">
         <v>10</v>
       </c>
-      <c r="N14" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="57">
+      <c r="J14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="57">
         <v>19</v>
       </c>
-      <c r="P14" s="57">
+      <c r="L14" s="57">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="Q14" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="R14" s="59">
+      <c r="M14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="59">
         <v>12</v>
       </c>
-      <c r="S14" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="T14" s="60">
+      <c r="O14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="60">
         <v>23</v>
       </c>
-      <c r="U14" s="60">
+      <c r="Q14" s="60">
         <f t="shared" si="2"/>
         <v>1.9166666666666667</v>
       </c>
-      <c r="V14" s="88" t="s">
+      <c r="R14" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="W14" s="89">
+      <c r="S14" s="45">
+        <v>30</v>
+      </c>
+      <c r="T14" s="45">
+        <v>61</v>
+      </c>
+      <c r="U14" s="45">
+        <v>58</v>
+      </c>
+      <c r="V14" s="45">
+        <v>150</v>
+      </c>
+      <c r="W14" s="92">
+        <v>94</v>
+      </c>
+      <c r="X14" s="93">
+        <v>199</v>
+      </c>
+      <c r="AA14" s="89">
         <v>93</v>
       </c>
-      <c r="X14" s="90">
+      <c r="AB14" s="90">
         <v>197</v>
       </c>
-      <c r="Y14" s="91">
+      <c r="AC14" s="91">
         <v>3</v>
       </c>
-      <c r="Z14" s="52">
+      <c r="AD14" s="52">
         <v>4</v>
       </c>
-      <c r="AA14" s="52">
+      <c r="AE14" s="52">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="120" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122" t="s">
+    <row r="15" spans="1:31" s="119" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="121" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="22">
         <v>109</v>
       </c>
-      <c r="C15" s="118">
-        <v>26</v>
-      </c>
-      <c r="D15" s="119">
-        <v>54</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="123">
+      <c r="C15" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="122">
         <v>7</v>
       </c>
-      <c r="I15" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="124">
+      <c r="E15" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="123">
         <v>15</v>
       </c>
-      <c r="K15" s="109">
+      <c r="G15" s="108">
         <f t="shared" si="0"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="L15" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="110">
+      <c r="H15" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="109">
         <v>0</v>
       </c>
-      <c r="N15" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="111">
+      <c r="J15" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="110">
         <v>0</v>
       </c>
-      <c r="P15" s="130" t="s">
+      <c r="L15" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="Q15" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="R15" s="112">
+      <c r="M15" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="111">
         <v>0</v>
       </c>
-      <c r="S15" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="T15" s="113">
+      <c r="O15" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="112">
         <v>0</v>
       </c>
-      <c r="U15" s="131" t="s">
+      <c r="Q15" s="129" t="s">
         <v>195</v>
       </c>
-      <c r="V15" s="114" t="s">
+      <c r="R15" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="115">
+      <c r="S15" s="45">
+        <v>2</v>
+      </c>
+      <c r="T15" s="45">
+        <v>4</v>
+      </c>
+      <c r="U15" s="45">
+        <v>8</v>
+      </c>
+      <c r="V15" s="45">
+        <v>30</v>
+      </c>
+      <c r="W15" s="117">
+        <v>26</v>
+      </c>
+      <c r="X15" s="118">
+        <v>54</v>
+      </c>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="114">
         <v>24</v>
       </c>
-      <c r="X15" s="116">
+      <c r="AB15" s="115">
         <v>50</v>
       </c>
-      <c r="Y15" s="117">
+      <c r="AC15" s="116">
         <v>3</v>
       </c>
-      <c r="Z15" s="107">
+      <c r="AD15" s="107">
         <v>3</v>
       </c>
-      <c r="AA15" s="107">
+      <c r="AE15" s="107">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="6">
         <v>301</v>
       </c>
-      <c r="C16" s="77">
-        <v>60</v>
-      </c>
-      <c r="D16" s="78">
-        <v>156</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="C16" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="9">
         <v>21</v>
       </c>
-      <c r="I16" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="E16" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="10">
         <v>42</v>
       </c>
-      <c r="K16" s="47">
+      <c r="G16" s="47">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L16" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="48">
+      <c r="H16" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="48">
         <v>7</v>
       </c>
-      <c r="N16" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" s="49">
+      <c r="J16" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="49">
         <v>14</v>
       </c>
-      <c r="P16" s="49">
+      <c r="L16" s="49">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q16" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="R16" s="50">
+      <c r="M16" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="50">
         <v>4</v>
       </c>
-      <c r="S16" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="T16" s="51">
+      <c r="O16" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="51">
         <v>7</v>
       </c>
-      <c r="U16" s="51">
+      <c r="Q16" s="51">
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
-      <c r="V16" s="73" t="s">
+      <c r="R16" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="W16" s="74">
+      <c r="S16" s="45">
+        <v>3</v>
+      </c>
+      <c r="T16" s="45">
+        <v>6</v>
+      </c>
+      <c r="U16" s="45">
+        <v>24</v>
+      </c>
+      <c r="V16" s="45">
+        <v>84</v>
+      </c>
+      <c r="W16" s="77">
         <v>60</v>
       </c>
-      <c r="X16" s="75">
+      <c r="X16" s="78">
         <v>156</v>
       </c>
-      <c r="Y16" s="76">
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="74">
+        <v>60</v>
+      </c>
+      <c r="AB16" s="75">
+        <v>156</v>
+      </c>
+      <c r="AC16" s="76">
         <v>6</v>
       </c>
-      <c r="Z16" s="45">
+      <c r="AD16" s="45">
         <v>6</v>
       </c>
-      <c r="AA16" s="45">
+      <c r="AE16" s="45">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="126" t="s">
+    <row r="17" spans="1:31" s="14" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="139">
         <v>251</v>
       </c>
-      <c r="C17" s="92">
-        <v>51</v>
-      </c>
-      <c r="D17" s="93">
-        <v>114</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="127">
+      <c r="C17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="125">
         <v>20</v>
       </c>
-      <c r="I17" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="128">
+      <c r="E17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="126">
         <v>36</v>
       </c>
-      <c r="K17" s="54">
+      <c r="G17" s="54">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="L17" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="56">
+      <c r="H17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="56">
         <v>8</v>
       </c>
-      <c r="N17" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="O17" s="132">
+      <c r="J17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="130">
         <v>19</v>
       </c>
-      <c r="P17" s="57">
+      <c r="L17" s="57">
         <f t="shared" si="1"/>
         <v>2.375</v>
       </c>
-      <c r="Q17" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="R17" s="59">
+      <c r="M17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="59">
         <v>1</v>
       </c>
-      <c r="S17" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="T17" s="60">
+      <c r="O17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="60">
         <v>1</v>
       </c>
-      <c r="U17" s="60">
+      <c r="Q17" s="60">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V17" s="88" t="s">
+      <c r="R17" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="W17" s="89">
-        <v>52</v>
-      </c>
-      <c r="X17" s="90">
+      <c r="S17" s="52">
+        <v>3</v>
+      </c>
+      <c r="T17" s="52">
+        <v>9</v>
+      </c>
+      <c r="U17" s="52">
+        <v>18</v>
+      </c>
+      <c r="V17" s="52">
+        <v>82</v>
+      </c>
+      <c r="W17" s="92">
+        <v>51</v>
+      </c>
+      <c r="X17" s="93">
+        <v>114</v>
+      </c>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="89">
+        <v>52</v>
+      </c>
+      <c r="AB17" s="90">
         <v>116</v>
       </c>
-      <c r="Y17" s="91">
+      <c r="AC17" s="91">
         <v>4</v>
       </c>
-      <c r="Z17" s="52">
+      <c r="AD17" s="52">
         <v>2</v>
       </c>
-      <c r="AA17" s="52">
+      <c r="AE17" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6">
         <v>5</v>
       </c>
-      <c r="C18" s="84">
-        <v>0</v>
-      </c>
-      <c r="D18" s="85">
-        <v>0</v>
-      </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="42">
+      <c r="C18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="42">
         <v>2</v>
       </c>
-      <c r="I18" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="43">
+      <c r="E18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="43">
         <v>3</v>
       </c>
-      <c r="K18" s="63">
+      <c r="G18" s="63">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="L18" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="64">
+      <c r="H18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="64">
         <v>0</v>
       </c>
-      <c r="N18" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="65">
+      <c r="J18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="65">
         <v>0</v>
       </c>
-      <c r="P18" s="121" t="s">
+      <c r="L18" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="Q18" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="R18" s="66">
+      <c r="M18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="66">
         <v>0</v>
       </c>
-      <c r="S18" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="T18" s="67">
+      <c r="O18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="67">
         <v>0</v>
       </c>
-      <c r="U18" s="129" t="s">
+      <c r="Q18" s="127" t="s">
         <v>195</v>
       </c>
-      <c r="V18" s="80" t="s">
+      <c r="R18" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="W18" s="81">
+      <c r="S18" s="61">
         <v>0</v>
       </c>
-      <c r="X18" s="82">
+      <c r="T18" s="61">
         <v>0</v>
       </c>
-      <c r="Y18" s="83">
+      <c r="U18" s="61">
+        <v>1</v>
+      </c>
+      <c r="V18" s="61">
+        <v>3</v>
+      </c>
+      <c r="W18" s="84">
+        <v>0</v>
+      </c>
+      <c r="X18" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="82">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="83">
         <v>-1</v>
       </c>
-      <c r="Z18" s="61">
+      <c r="AD18" s="61">
         <v>2</v>
       </c>
-      <c r="AA18" s="61">
+      <c r="AE18" s="61">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="6">
         <v>17</v>
       </c>
-      <c r="C19" s="77">
-        <v>0</v>
-      </c>
-      <c r="D19" s="78">
-        <v>0</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="C19" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="9">
         <v>1</v>
       </c>
-      <c r="I19" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="10">
+      <c r="E19" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="10">
         <v>1</v>
       </c>
-      <c r="K19" s="47">
+      <c r="G19" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L19" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" s="48">
+      <c r="H19" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="48">
         <v>0</v>
       </c>
-      <c r="N19" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="49">
+      <c r="J19" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="49">
         <v>0</v>
       </c>
-      <c r="P19" s="69" t="s">
+      <c r="L19" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="Q19" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="R19" s="50">
+      <c r="M19" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="50">
         <v>0</v>
       </c>
-      <c r="S19" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="T19" s="51">
+      <c r="O19" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" s="51">
         <v>0</v>
       </c>
-      <c r="U19" s="79" t="s">
+      <c r="Q19" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="V19" s="73" t="s">
+      <c r="R19" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="74">
+      <c r="S19" s="45">
         <v>0</v>
       </c>
-      <c r="X19" s="75">
+      <c r="T19" s="45">
         <v>0</v>
       </c>
-      <c r="Y19" s="76">
+      <c r="U19" s="45">
+        <v>2</v>
+      </c>
+      <c r="V19" s="45">
+        <v>10</v>
+      </c>
+      <c r="W19" s="77">
+        <v>0</v>
+      </c>
+      <c r="X19" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="75">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="76">
         <v>-1</v>
       </c>
-      <c r="Z19" s="45">
+      <c r="AD19" s="45">
         <v>2</v>
       </c>
-      <c r="AA19" s="45">
+      <c r="AE19" s="45">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="6">
         <v>24</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="9">
         <v>0</v>
       </c>
-      <c r="D20" s="78">
+      <c r="E20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="10">
         <v>0</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="9">
+      <c r="G20" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="48">
         <v>0</v>
       </c>
-      <c r="I20" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="J20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="49">
         <v>0</v>
       </c>
-      <c r="K20" s="70" t="s">
+      <c r="L20" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="48">
+      <c r="M20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="50">
         <v>0</v>
       </c>
-      <c r="N20" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="O20" s="49">
+      <c r="O20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="51">
         <v>0</v>
       </c>
-      <c r="P20" s="69" t="s">
+      <c r="Q20" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="Q20" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="R20" s="50">
+      <c r="R20" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="S20" s="45">
         <v>0</v>
       </c>
-      <c r="S20" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="T20" s="51">
+      <c r="T20" s="45">
         <v>0</v>
       </c>
-      <c r="U20" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="V20" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="W20" s="74">
+      <c r="U20" s="45">
+        <v>4</v>
+      </c>
+      <c r="V20" s="45">
+        <v>13</v>
+      </c>
+      <c r="W20" s="77">
         <v>0</v>
       </c>
-      <c r="X20" s="75">
+      <c r="X20" s="78">
         <v>0</v>
       </c>
-      <c r="Y20" s="76">
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="75">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="76">
         <v>-1</v>
       </c>
-      <c r="Z20" s="45">
+      <c r="AD20" s="45">
         <v>0</v>
       </c>
-      <c r="AA20" s="45">
+      <c r="AE20" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="6">
         <v>434</v>
       </c>
-      <c r="C21" s="77">
-        <v>0</v>
-      </c>
-      <c r="D21" s="78">
-        <v>0</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="9">
+      <c r="C21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="9">
         <v>1</v>
       </c>
-      <c r="I21" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="10">
+      <c r="E21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="10">
         <v>2</v>
       </c>
-      <c r="K21" s="47">
+      <c r="G21" s="47">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L21" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="48">
+      <c r="H21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="48">
         <v>0</v>
       </c>
-      <c r="N21" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="O21" s="49">
+      <c r="J21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="49">
         <v>0</v>
       </c>
-      <c r="P21" s="69" t="s">
+      <c r="L21" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="Q21" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="R21" s="50">
+      <c r="M21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="50">
         <v>0</v>
       </c>
-      <c r="S21" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="T21" s="51">
+      <c r="O21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="51">
         <v>0</v>
       </c>
-      <c r="U21" s="79" t="s">
+      <c r="Q21" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="V21" s="73" t="s">
+      <c r="R21" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="W21" s="74">
+      <c r="S21" s="45">
+        <v>1</v>
+      </c>
+      <c r="T21" s="45">
+        <v>2</v>
+      </c>
+      <c r="U21" s="45">
+        <v>6</v>
+      </c>
+      <c r="V21" s="45">
+        <v>27</v>
+      </c>
+      <c r="W21" s="77">
         <v>0</v>
       </c>
-      <c r="X21" s="75">
+      <c r="X21" s="78">
         <v>0</v>
       </c>
-      <c r="Y21" s="76">
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="75">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="76">
         <v>-1</v>
       </c>
-      <c r="Z21" s="45">
+      <c r="AD21" s="45">
         <v>0</v>
       </c>
-      <c r="AA21" s="45">
+      <c r="AE21" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106">
+        <v>11471</v>
+      </c>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106">
+        <v>40432</v>
+      </c>
       <c r="G22" s="106"/>
-      <c r="H22" s="106">
-        <v>11471</v>
-      </c>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106">
-        <v>40432</v>
-      </c>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="86">
+      <c r="H22" s="106"/>
+      <c r="I22" s="86">
         <v>1943</v>
       </c>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86">
+      <c r="J22" s="86"/>
+      <c r="K22" s="86">
         <v>7358</v>
       </c>
-      <c r="P22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86">
+        <v>2312</v>
+      </c>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86">
+        <v>5262</v>
+      </c>
       <c r="Q22" s="86"/>
-      <c r="R22" s="86">
-        <v>2312</v>
-      </c>
+      <c r="R22" s="86"/>
       <c r="S22" s="86"/>
-      <c r="T22" s="86">
-        <v>5262</v>
-      </c>
+      <c r="T22" s="86"/>
       <c r="U22" s="86"/>
       <c r="V22" s="86"/>
       <c r="W22" s="86"/>
       <c r="X22" s="86"/>
       <c r="Y22" s="86"/>
-      <c r="Z22" s="86">
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86">
         <v>476</v>
       </c>
-      <c r="AA22" s="86">
+      <c r="AE22" s="86">
         <v>1489</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:31" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="V3" r:id="rId1" xr:uid="{E632A09C-4132-4C53-8ED5-B8901C5BB42D}"/>
-    <hyperlink ref="V4:V21" r:id="rId2" display="\\" xr:uid="{CB01C0AA-EEB2-4F71-AF1C-3ED6230B7835}"/>
+    <hyperlink ref="R3" r:id="rId1" xr:uid="{E632A09C-4132-4C53-8ED5-B8901C5BB42D}"/>
+    <hyperlink ref="R4:R21" r:id="rId2" display="\\" xr:uid="{CB01C0AA-EEB2-4F71-AF1C-3ED6230B7835}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
